--- a/Output/Table_Column/FNC_SVC_AR_FCT_FA_TAB_COL.xlsx
+++ b/Output/Table_Column/FNC_SVC_AR_FCT_FA_TAB_COL.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Table_Alias" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Table Name_Alias" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Full_Table" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
@@ -6734,7 +6734,7 @@
       <c r="C255" t="inlineStr"/>
       <c r="D255" t="inlineStr">
         <is>
-          <t>'48AD3C9EF52018E228A295F9A93E5DF4', 'F3B20F07E2D8DDE866BED28D24F7FCE4'</t>
+          <t>#PDATE</t>
         </is>
       </c>
     </row>
@@ -6748,7 +6748,7 @@
       <c r="C256" t="inlineStr"/>
       <c r="D256" t="inlineStr">
         <is>
-          <t>#PDATE</t>
+          <t>'48AD3C9EF52018E228A295F9A93E5DF4', 'F3B20F07E2D8DDE866BED28D24F7FCE4'</t>
         </is>
       </c>
     </row>
@@ -9482,7 +9482,7 @@
       <c r="C381" t="inlineStr"/>
       <c r="D381" t="inlineStr">
         <is>
-          <t>0 TOT_PAST_DUE_PNP</t>
+          <t>0 NOD_PAST_DUE</t>
         </is>
       </c>
     </row>
@@ -9496,7 +9496,7 @@
       <c r="C382" t="inlineStr"/>
       <c r="D382" t="inlineStr">
         <is>
-          <t>#PDATE#											CDR_DT_DIM_ID</t>
+          <t>0 PREPYMT_AMT_FCY</t>
         </is>
       </c>
     </row>
@@ -9510,7 +9510,7 @@
       <c r="C383" t="inlineStr"/>
       <c r="D383" t="inlineStr">
         <is>
-          <t>0 CLS_BAL_LCY</t>
+          <t>0 LQD_AMT_FCY</t>
         </is>
       </c>
     </row>
@@ -9524,7 +9524,7 @@
       <c r="C384" t="inlineStr"/>
       <c r="D384" t="inlineStr">
         <is>
-          <t>TO_NUMBER(TO_CHAR(TO_DATE(#PDATE#, 'YYYYMMDD')-1, 'YYYYMMDD'))</t>
+          <t>SUBSTR</t>
         </is>
       </c>
     </row>
@@ -9538,7 +9538,7 @@
       <c r="C385" t="inlineStr"/>
       <c r="D385" t="inlineStr">
         <is>
-          <t>0 LQD_AMT_LCY</t>
+          <t>0 TOT_PAST_DUE_INT</t>
         </is>
       </c>
     </row>
@@ -9552,7 +9552,7 @@
       <c r="C386" t="inlineStr"/>
       <c r="D386" t="inlineStr">
         <is>
-          <t>()</t>
+          <t>0 PNP_DUE_AMT</t>
         </is>
       </c>
     </row>
@@ -9566,7 +9566,7 @@
       <c r="C387" t="inlineStr"/>
       <c r="D387" t="inlineStr">
         <is>
-          <t>0 INTERIM_INT</t>
+          <t>0 TOT_LMT_AMT</t>
         </is>
       </c>
     </row>
@@ -9580,7 +9580,7 @@
       <c r="C388" t="inlineStr"/>
       <c r="D388" t="inlineStr">
         <is>
-          <t>0 ORIG_CLS_BAL_FCY</t>
+          <t>0 TOT_PAST_DUE_PNP</t>
         </is>
       </c>
     </row>
@@ -9594,7 +9594,7 @@
       <c r="C389" t="inlineStr"/>
       <c r="D389" t="inlineStr">
         <is>
-          <t>0 ORIG_CLS_BAL_LCY</t>
+          <t>0 INT_DUE_AMT</t>
         </is>
       </c>
     </row>
@@ -9608,7 +9608,7 @@
       <c r="C390" t="inlineStr"/>
       <c r="D390" t="inlineStr">
         <is>
-          <t>0 PREPYMT_AMT_LCY</t>
+          <t>#PDATE</t>
         </is>
       </c>
     </row>
@@ -9622,7 +9622,7 @@
       <c r="C391" t="inlineStr"/>
       <c r="D391" t="inlineStr">
         <is>
-          <t>0 INT_DUE_AMT</t>
+          <t>()</t>
         </is>
       </c>
     </row>
@@ -9636,7 +9636,7 @@
       <c r="C392" t="inlineStr"/>
       <c r="D392" t="inlineStr">
         <is>
-          <t>0 NOD_PAST_DUE</t>
+          <t>0 FEE_INCM_LCY</t>
         </is>
       </c>
     </row>
@@ -9650,7 +9650,7 @@
       <c r="C393" t="inlineStr"/>
       <c r="D393" t="inlineStr">
         <is>
-          <t>#PDATE</t>
+          <t>0 PREPYMT_AMT_LCY</t>
         </is>
       </c>
     </row>
@@ -9664,7 +9664,7 @@
       <c r="C394" t="inlineStr"/>
       <c r="D394" t="inlineStr">
         <is>
-          <t>0 LQD_AMT_FCY</t>
+          <t>0 CLS_BAL_FCY</t>
         </is>
       </c>
     </row>
@@ -9678,7 +9678,7 @@
       <c r="C395" t="inlineStr"/>
       <c r="D395" t="inlineStr">
         <is>
-          <t>0 FEE_INCM_LCY</t>
+          <t>0 CLS_UTLZ_AMT_FCY</t>
         </is>
       </c>
     </row>
@@ -9692,7 +9692,7 @@
       <c r="C396" t="inlineStr"/>
       <c r="D396" t="inlineStr">
         <is>
-          <t>0 PNP_DUE_AMT</t>
+          <t>0 DSBR_AMT_FCY</t>
         </is>
       </c>
     </row>
@@ -9706,7 +9706,7 @@
       <c r="C397" t="inlineStr"/>
       <c r="D397" t="inlineStr">
         <is>
-          <t>0 CLS_UTLZ_AMT_FCY</t>
+          <t>0 INTERIM_INT</t>
         </is>
       </c>
     </row>
@@ -9734,7 +9734,7 @@
       <c r="C399" t="inlineStr"/>
       <c r="D399" t="inlineStr">
         <is>
-          <t>0 TOT_PAST_DUE_INT</t>
+          <t>0 DSBR_AMT_LCY</t>
         </is>
       </c>
     </row>
@@ -9748,7 +9748,7 @@
       <c r="C400" t="inlineStr"/>
       <c r="D400" t="inlineStr">
         <is>
-          <t>0 DSBR_AMT_LCY</t>
+          <t>TO_NUMBER(TO_CHAR(TO_DATE(#PDATE#, 'YYYYMMDD')-1, 'YYYYMMDD'))</t>
         </is>
       </c>
     </row>
@@ -9762,7 +9762,7 @@
       <c r="C401" t="inlineStr"/>
       <c r="D401" t="inlineStr">
         <is>
-          <t>0 DLQ_CNT</t>
+          <t>('LN', 'OD')</t>
         </is>
       </c>
     </row>
@@ -9776,7 +9776,7 @@
       <c r="C402" t="inlineStr"/>
       <c r="D402" t="inlineStr">
         <is>
-          <t>SUBSTR</t>
+          <t>#PDATE#											CDR_DT_DIM_ID</t>
         </is>
       </c>
     </row>
@@ -9790,7 +9790,7 @@
       <c r="C403" t="inlineStr"/>
       <c r="D403" t="inlineStr">
         <is>
-          <t>0 TOT_LMT_AMT</t>
+          <t>0 LQD_AMT_LCY</t>
         </is>
       </c>
     </row>
@@ -9804,7 +9804,7 @@
       <c r="C404" t="inlineStr"/>
       <c r="D404" t="inlineStr">
         <is>
-          <t>0 DSBR_AMT_FCY</t>
+          <t>0 DLQ_CNT</t>
         </is>
       </c>
     </row>
@@ -9818,7 +9818,7 @@
       <c r="C405" t="inlineStr"/>
       <c r="D405" t="inlineStr">
         <is>
-          <t>0 PREPYMT_AMT_FCY</t>
+          <t>0 ORIG_CLS_BAL_LCY</t>
         </is>
       </c>
     </row>
@@ -9832,7 +9832,7 @@
       <c r="C406" t="inlineStr"/>
       <c r="D406" t="inlineStr">
         <is>
-          <t>('LN', 'OD')</t>
+          <t>0 ORIG_CLS_BAL_FCY</t>
         </is>
       </c>
     </row>
@@ -9846,7 +9846,7 @@
       <c r="C407" t="inlineStr"/>
       <c r="D407" t="inlineStr">
         <is>
-          <t>0 CLS_BAL_FCY</t>
+          <t>0 CLS_BAL_LCY</t>
         </is>
       </c>
     </row>

--- a/Output/Table_Column/FNC_SVC_AR_FCT_FA_TAB_COL.xlsx
+++ b/Output/Table_Column/FNC_SVC_AR_FCT_FA_TAB_COL.xlsx
@@ -12041,7 +12041,7 @@
       <c r="C319" t="inlineStr"/>
       <c r="D319" t="inlineStr">
         <is>
-          <t>()</t>
+          <t>SUBSTR</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
@@ -12060,7 +12060,7 @@
       <c r="C320" t="inlineStr"/>
       <c r="D320" t="inlineStr">
         <is>
-          <t>0 TOT_LMT_AMT</t>
+          <t>0 TOT_AVL_LMT_AMT</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
@@ -12098,7 +12098,7 @@
       <c r="C322" t="inlineStr"/>
       <c r="D322" t="inlineStr">
         <is>
-          <t>TO_NUMBER(TO_CHAR(TO_DATE(:PDATE:, 'YYYYMMDD')-1, 'YYYYMMDD'))</t>
+          <t>0 LQD_AMT_FCY</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
@@ -12117,7 +12117,7 @@
       <c r="C323" t="inlineStr"/>
       <c r="D323" t="inlineStr">
         <is>
-          <t>0 LQD_AMT_FCY</t>
+          <t>0 LQD_AMT_LCY</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
@@ -12136,7 +12136,7 @@
       <c r="C324" t="inlineStr"/>
       <c r="D324" t="inlineStr">
         <is>
-          <t>0 PNP_DUE_AMT</t>
+          <t>0 ORIG_CLS_BAL_LCY</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
@@ -12174,7 +12174,7 @@
       <c r="C326" t="inlineStr"/>
       <c r="D326" t="inlineStr">
         <is>
-          <t>0 CLS_UTLZ_AMT_FCY</t>
+          <t>TO_NUMBER(TO_CHAR(TO_DATE(:PDATE:, 'YYYYMMDD')-1, 'YYYYMMDD'))</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
@@ -12193,7 +12193,7 @@
       <c r="C327" t="inlineStr"/>
       <c r="D327" t="inlineStr">
         <is>
-          <t>0 DSBR_AMT_FCY</t>
+          <t>0 CLS_BAL_LCY</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
@@ -12212,7 +12212,7 @@
       <c r="C328" t="inlineStr"/>
       <c r="D328" t="inlineStr">
         <is>
-          <t>('LN', 'OD')</t>
+          <t>0 DSBR_AMT_FCY</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
@@ -12231,7 +12231,7 @@
       <c r="C329" t="inlineStr"/>
       <c r="D329" t="inlineStr">
         <is>
-          <t>0 DLQ_CNT</t>
+          <t>('LN', 'OD')</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
@@ -12250,7 +12250,7 @@
       <c r="C330" t="inlineStr"/>
       <c r="D330" t="inlineStr">
         <is>
-          <t>0 CLS_BAL_LCY</t>
+          <t>0 INTERIM_INT</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
@@ -12269,7 +12269,7 @@
       <c r="C331" t="inlineStr"/>
       <c r="D331" t="inlineStr">
         <is>
-          <t>CDR_DT_DIM_ID</t>
+          <t>0 FEE_INCM_LCY</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
@@ -12288,7 +12288,7 @@
       <c r="C332" t="inlineStr"/>
       <c r="D332" t="inlineStr">
         <is>
-          <t>0 TOT_DSBR_AMT_FCY</t>
+          <t>0 TOT_LMT_AMT</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
@@ -12307,7 +12307,7 @@
       <c r="C333" t="inlineStr"/>
       <c r="D333" t="inlineStr">
         <is>
-          <t>0 ORIG_CLS_BAL_LCY</t>
+          <t>0 CLS_UTLZ_AMT_FCY</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
@@ -12326,7 +12326,7 @@
       <c r="C334" t="inlineStr"/>
       <c r="D334" t="inlineStr">
         <is>
-          <t>0 TOT_PAST_DUE_PNP</t>
+          <t>0 NOD_PAST_DUE</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
@@ -12345,7 +12345,7 @@
       <c r="C335" t="inlineStr"/>
       <c r="D335" t="inlineStr">
         <is>
-          <t>0 CLS_BAL_FCY</t>
+          <t>0 DSBR_AMT_LCY</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
@@ -12364,7 +12364,7 @@
       <c r="C336" t="inlineStr"/>
       <c r="D336" t="inlineStr">
         <is>
-          <t>0 TOT_AVL_LMT_AMT</t>
+          <t>0 TOT_PAST_DUE_PNP</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
@@ -12383,7 +12383,7 @@
       <c r="C337" t="inlineStr"/>
       <c r="D337" t="inlineStr">
         <is>
-          <t>0 INT_DUE_AMT</t>
+          <t>()</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
@@ -12402,7 +12402,7 @@
       <c r="C338" t="inlineStr"/>
       <c r="D338" t="inlineStr">
         <is>
-          <t>0 PREPYMT_AMT_LCY</t>
+          <t>0 TOT_DSBR_AMT_FCY</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
@@ -12421,7 +12421,7 @@
       <c r="C339" t="inlineStr"/>
       <c r="D339" t="inlineStr">
         <is>
-          <t>0 LQD_AMT_LCY</t>
+          <t>0 TOT_PAST_DUE_INT</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
@@ -12440,7 +12440,7 @@
       <c r="C340" t="inlineStr"/>
       <c r="D340" t="inlineStr">
         <is>
-          <t>0 INTERIM_INT</t>
+          <t>0 DLQ_CNT</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
@@ -12459,7 +12459,7 @@
       <c r="C341" t="inlineStr"/>
       <c r="D341" t="inlineStr">
         <is>
-          <t>0 TOT_PAST_DUE_INT</t>
+          <t>0 CLS_BAL_FCY</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
@@ -12478,7 +12478,7 @@
       <c r="C342" t="inlineStr"/>
       <c r="D342" t="inlineStr">
         <is>
-          <t>0 DSBR_AMT_LCY</t>
+          <t>CDR_DT_DIM_ID</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
@@ -12497,7 +12497,7 @@
       <c r="C343" t="inlineStr"/>
       <c r="D343" t="inlineStr">
         <is>
-          <t>0 FEE_INCM_LCY</t>
+          <t>0 INT_DUE_AMT</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
@@ -12516,7 +12516,7 @@
       <c r="C344" t="inlineStr"/>
       <c r="D344" t="inlineStr">
         <is>
-          <t>SUBSTR</t>
+          <t>0 PNP_DUE_AMT</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
@@ -12535,7 +12535,7 @@
       <c r="C345" t="inlineStr"/>
       <c r="D345" t="inlineStr">
         <is>
-          <t>0 NOD_PAST_DUE</t>
+          <t>0 PREPYMT_AMT_LCY</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
@@ -12612,7 +12612,7 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>CDR_DT_DIM_ID</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
@@ -14057,7 +14057,7 @@
       <c r="C403" t="inlineStr"/>
       <c r="D403" t="inlineStr">
         <is>
-          <t>CLS_BAL_MTD_LCY</t>
+          <t>CLS_BAL_WTD_LCY</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
@@ -14076,7 +14076,7 @@
       <c r="C404" t="inlineStr"/>
       <c r="D404" t="inlineStr">
         <is>
-          <t>CLS_BAL_WTD_FCY</t>
+          <t>DSBR_AMT_MTD_LCY</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
@@ -14095,7 +14095,7 @@
       <c r="C405" t="inlineStr"/>
       <c r="D405" t="inlineStr">
         <is>
-          <t>PREPYMT_AMT_MTD_LCY</t>
+          <t>PREPYMT_AMT_MTD_FCY</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
@@ -14114,7 +14114,7 @@
       <c r="C406" t="inlineStr"/>
       <c r="D406" t="inlineStr">
         <is>
-          <t>PREPYMT_AMT_MTD_FCY</t>
+          <t>CLS_BAL_MTD_LCY</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
@@ -14171,7 +14171,7 @@
       <c r="C409" t="inlineStr"/>
       <c r="D409" t="inlineStr">
         <is>
-          <t>CLS_BAL_MTD_FCY</t>
+          <t>PREPYMT_AMT_MTD_LCY</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
@@ -14190,7 +14190,7 @@
       <c r="C410" t="inlineStr"/>
       <c r="D410" t="inlineStr">
         <is>
-          <t>CLS_BAL_WTD_LCY</t>
+          <t>CLS_BAL_WTD_FCY</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
@@ -14209,7 +14209,7 @@
       <c r="C411" t="inlineStr"/>
       <c r="D411" t="inlineStr">
         <is>
-          <t>DSBR_AMT_MTD_LCY</t>
+          <t>CLS_BAL_MTD_FCY</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
@@ -18570,7 +18570,7 @@
       <c r="C574" t="inlineStr"/>
       <c r="D574" t="inlineStr">
         <is>
-          <t>LAST_EFF_DT</t>
+          <t>AC_AR_ID</t>
         </is>
       </c>
       <c r="E574" t="inlineStr">
@@ -18589,7 +18589,7 @@
       <c r="C575" t="inlineStr"/>
       <c r="D575" t="inlineStr">
         <is>
-          <t>AC_AR_ID</t>
+          <t>LAST_EFF_DT</t>
         </is>
       </c>
       <c r="E575" t="inlineStr">
@@ -20477,28 +20477,6 @@
       <c r="B647" t="inlineStr"/>
       <c r="C647" t="inlineStr"/>
       <c r="D647" t="inlineStr">
-        <is>
-          <t>(
-		'7D108472968DF6F6A56D5BDFC01488A9'
-		,'06CD0B184A47E6CEB56653555A20950F'
-		)</t>
-        </is>
-      </c>
-      <c r="E647" t="inlineStr">
-        <is>
-          <t>PAR_DMT_TWT_FNC_SVC_AR_FCT_FA_TruncIns</t>
-        </is>
-      </c>
-    </row>
-    <row r="648">
-      <c r="A648" t="inlineStr">
-        <is>
-          <t>LOAN</t>
-        </is>
-      </c>
-      <c r="B648" t="inlineStr"/>
-      <c r="C648" t="inlineStr"/>
-      <c r="D648" t="inlineStr">
         <is>
           <t>'121101'
 		,'121102'
@@ -20533,6 +20511,28 @@
 		,'170302'</t>
         </is>
       </c>
+      <c r="E647" t="inlineStr">
+        <is>
+          <t>PAR_DMT_TWT_FNC_SVC_AR_FCT_FA_TruncIns</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>LOAN</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr"/>
+      <c r="C648" t="inlineStr"/>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>(
+		'7D108472968DF6F6A56D5BDFC01488A9'
+		,'06CD0B184A47E6CEB56653555A20950F'
+		)</t>
+        </is>
+      </c>
       <c r="E648" t="inlineStr">
         <is>
           <t>PAR_DMT_TWT_FNC_SVC_AR_FCT_FA_TruncIns</t>
@@ -22673,7 +22673,7 @@
       <c r="C730" t="inlineStr"/>
       <c r="D730" t="inlineStr">
         <is>
-          <t>()</t>
+          <t>PST_DT</t>
         </is>
       </c>
       <c r="E730" t="inlineStr">
@@ -22711,7 +22711,7 @@
       <c r="C732" t="inlineStr"/>
       <c r="D732" t="inlineStr">
         <is>
-          <t>('C11M', 'C11S', 'M9P1', 'M9PM', 'M9PS', 'N9PS')</t>
+          <t>()</t>
         </is>
       </c>
       <c r="E732" t="inlineStr">
@@ -22730,7 +22730,7 @@
       <c r="C733" t="inlineStr"/>
       <c r="D733" t="inlineStr">
         <is>
-          <t>PST_DT</t>
+          <t>('C11M', 'C11S', 'M9P1', 'M9PM', 'M9PS', 'N9PS')</t>
         </is>
       </c>
       <c r="E733" t="inlineStr">

--- a/Output/Table_Column/FNC_SVC_AR_FCT_FA_TAB_COL.xlsx
+++ b/Output/Table_Column/FNC_SVC_AR_FCT_FA_TAB_COL.xlsx
@@ -12041,7 +12041,7 @@
       <c r="C319" t="inlineStr"/>
       <c r="D319" t="inlineStr">
         <is>
-          <t>SUBSTR</t>
+          <t>0 DSBR_AMT_LCY</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
@@ -12060,7 +12060,7 @@
       <c r="C320" t="inlineStr"/>
       <c r="D320" t="inlineStr">
         <is>
-          <t>0 TOT_AVL_LMT_AMT</t>
+          <t>0 TOT_PAST_DUE_INT</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
@@ -12079,7 +12079,7 @@
       <c r="C321" t="inlineStr"/>
       <c r="D321" t="inlineStr">
         <is>
-          <t>0 PREPYMT_AMT_FCY</t>
+          <t>0 INTERIM_INT</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
@@ -12098,7 +12098,7 @@
       <c r="C322" t="inlineStr"/>
       <c r="D322" t="inlineStr">
         <is>
-          <t>0 LQD_AMT_FCY</t>
+          <t>0 PREPYMT_AMT_LCY</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
@@ -12117,7 +12117,7 @@
       <c r="C323" t="inlineStr"/>
       <c r="D323" t="inlineStr">
         <is>
-          <t>0 LQD_AMT_LCY</t>
+          <t>()</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
@@ -12136,7 +12136,7 @@
       <c r="C324" t="inlineStr"/>
       <c r="D324" t="inlineStr">
         <is>
-          <t>0 ORIG_CLS_BAL_LCY</t>
+          <t>SUBSTR</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
@@ -12155,7 +12155,7 @@
       <c r="C325" t="inlineStr"/>
       <c r="D325" t="inlineStr">
         <is>
-          <t>0 ORIG_CLS_BAL_FCY</t>
+          <t>0 CLS_UTLZ_AMT_FCY</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
@@ -12174,7 +12174,7 @@
       <c r="C326" t="inlineStr"/>
       <c r="D326" t="inlineStr">
         <is>
-          <t>TO_NUMBER(TO_CHAR(TO_DATE(:PDATE:, 'YYYYMMDD')-1, 'YYYYMMDD'))</t>
+          <t>CDR_DT_DIM_ID</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
@@ -12193,7 +12193,7 @@
       <c r="C327" t="inlineStr"/>
       <c r="D327" t="inlineStr">
         <is>
-          <t>0 CLS_BAL_LCY</t>
+          <t>0 TOT_PAST_DUE_PNP</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
@@ -12212,7 +12212,7 @@
       <c r="C328" t="inlineStr"/>
       <c r="D328" t="inlineStr">
         <is>
-          <t>0 DSBR_AMT_FCY</t>
+          <t>0 CLS_BAL_FCY</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
@@ -12231,7 +12231,7 @@
       <c r="C329" t="inlineStr"/>
       <c r="D329" t="inlineStr">
         <is>
-          <t>('LN', 'OD')</t>
+          <t>0 DSBR_AMT_FCY</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
@@ -12250,7 +12250,7 @@
       <c r="C330" t="inlineStr"/>
       <c r="D330" t="inlineStr">
         <is>
-          <t>0 INTERIM_INT</t>
+          <t>0 INT_DUE_AMT</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
@@ -12269,7 +12269,7 @@
       <c r="C331" t="inlineStr"/>
       <c r="D331" t="inlineStr">
         <is>
-          <t>0 FEE_INCM_LCY</t>
+          <t>0 NOD_PAST_DUE</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
@@ -12288,7 +12288,7 @@
       <c r="C332" t="inlineStr"/>
       <c r="D332" t="inlineStr">
         <is>
-          <t>0 TOT_LMT_AMT</t>
+          <t>0 TOT_AVL_LMT_AMT</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
@@ -12307,7 +12307,7 @@
       <c r="C333" t="inlineStr"/>
       <c r="D333" t="inlineStr">
         <is>
-          <t>0 CLS_UTLZ_AMT_FCY</t>
+          <t>0 PREPYMT_AMT_FCY</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
@@ -12326,7 +12326,7 @@
       <c r="C334" t="inlineStr"/>
       <c r="D334" t="inlineStr">
         <is>
-          <t>0 NOD_PAST_DUE</t>
+          <t>0 PNP_DUE_AMT</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
@@ -12345,7 +12345,7 @@
       <c r="C335" t="inlineStr"/>
       <c r="D335" t="inlineStr">
         <is>
-          <t>0 DSBR_AMT_LCY</t>
+          <t>0 TOT_LMT_AMT</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
@@ -12364,7 +12364,7 @@
       <c r="C336" t="inlineStr"/>
       <c r="D336" t="inlineStr">
         <is>
-          <t>0 TOT_PAST_DUE_PNP</t>
+          <t>0 DLQ_CNT</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
@@ -12383,7 +12383,7 @@
       <c r="C337" t="inlineStr"/>
       <c r="D337" t="inlineStr">
         <is>
-          <t>()</t>
+          <t>0 LQD_AMT_FCY</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
@@ -12402,7 +12402,7 @@
       <c r="C338" t="inlineStr"/>
       <c r="D338" t="inlineStr">
         <is>
-          <t>0 TOT_DSBR_AMT_FCY</t>
+          <t>0 LQD_AMT_LCY</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
@@ -12421,7 +12421,7 @@
       <c r="C339" t="inlineStr"/>
       <c r="D339" t="inlineStr">
         <is>
-          <t>0 TOT_PAST_DUE_INT</t>
+          <t>0 TOT_DSBR_AMT_FCY</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
@@ -12440,7 +12440,7 @@
       <c r="C340" t="inlineStr"/>
       <c r="D340" t="inlineStr">
         <is>
-          <t>0 DLQ_CNT</t>
+          <t>('LN', 'OD')</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
@@ -12459,7 +12459,7 @@
       <c r="C341" t="inlineStr"/>
       <c r="D341" t="inlineStr">
         <is>
-          <t>0 CLS_BAL_FCY</t>
+          <t>TO_NUMBER(TO_CHAR(TO_DATE(:PDATE:, 'YYYYMMDD')-1, 'YYYYMMDD'))</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
@@ -12478,7 +12478,7 @@
       <c r="C342" t="inlineStr"/>
       <c r="D342" t="inlineStr">
         <is>
-          <t>CDR_DT_DIM_ID</t>
+          <t>0 ORIG_CLS_BAL_FCY</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
@@ -12497,7 +12497,7 @@
       <c r="C343" t="inlineStr"/>
       <c r="D343" t="inlineStr">
         <is>
-          <t>0 INT_DUE_AMT</t>
+          <t>0 CLS_BAL_LCY</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
@@ -12516,7 +12516,7 @@
       <c r="C344" t="inlineStr"/>
       <c r="D344" t="inlineStr">
         <is>
-          <t>0 PNP_DUE_AMT</t>
+          <t>0 ORIG_CLS_BAL_LCY</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
@@ -12535,7 +12535,7 @@
       <c r="C345" t="inlineStr"/>
       <c r="D345" t="inlineStr">
         <is>
-          <t>0 PREPYMT_AMT_LCY</t>
+          <t>0 FEE_INCM_LCY</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
@@ -14038,7 +14038,7 @@
       <c r="C402" t="inlineStr"/>
       <c r="D402" t="inlineStr">
         <is>
-          <t>ORIG_CLS_BAL_MTD_LCY</t>
+          <t>CLS_BAL_MTD_FCY</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
@@ -14057,7 +14057,7 @@
       <c r="C403" t="inlineStr"/>
       <c r="D403" t="inlineStr">
         <is>
-          <t>CLS_BAL_WTD_LCY</t>
+          <t>PREPYMT_AMT_MTD_LCY</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
@@ -14095,7 +14095,7 @@
       <c r="C405" t="inlineStr"/>
       <c r="D405" t="inlineStr">
         <is>
-          <t>PREPYMT_AMT_MTD_FCY</t>
+          <t>CLS_BAL_WTD_LCY</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
@@ -14114,7 +14114,7 @@
       <c r="C406" t="inlineStr"/>
       <c r="D406" t="inlineStr">
         <is>
-          <t>CLS_BAL_MTD_LCY</t>
+          <t>ORIG_CLS_BAL_MTD_FCY</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
@@ -14133,7 +14133,7 @@
       <c r="C407" t="inlineStr"/>
       <c r="D407" t="inlineStr">
         <is>
-          <t>CDR_DT_DIM_ID</t>
+          <t>PREPYMT_AMT_MTD_FCY</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
@@ -14152,7 +14152,7 @@
       <c r="C408" t="inlineStr"/>
       <c r="D408" t="inlineStr">
         <is>
-          <t>ORIG_CLS_BAL_MTD_FCY</t>
+          <t>CDR_DT_DIM_ID</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
@@ -14171,7 +14171,7 @@
       <c r="C409" t="inlineStr"/>
       <c r="D409" t="inlineStr">
         <is>
-          <t>PREPYMT_AMT_MTD_LCY</t>
+          <t>CLS_BAL_WTD_FCY</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
@@ -14190,7 +14190,7 @@
       <c r="C410" t="inlineStr"/>
       <c r="D410" t="inlineStr">
         <is>
-          <t>CLS_BAL_WTD_FCY</t>
+          <t>CLS_BAL_MTD_LCY</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
@@ -14209,7 +14209,7 @@
       <c r="C411" t="inlineStr"/>
       <c r="D411" t="inlineStr">
         <is>
-          <t>CLS_BAL_MTD_FCY</t>
+          <t>ORIG_CLS_BAL_MTD_LCY</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
@@ -20477,6 +20477,28 @@
       <c r="B647" t="inlineStr"/>
       <c r="C647" t="inlineStr"/>
       <c r="D647" t="inlineStr">
+        <is>
+          <t>(
+		'7D108472968DF6F6A56D5BDFC01488A9'
+		,'06CD0B184A47E6CEB56653555A20950F'
+		)</t>
+        </is>
+      </c>
+      <c r="E647" t="inlineStr">
+        <is>
+          <t>PAR_DMT_TWT_FNC_SVC_AR_FCT_FA_TruncIns</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>LOAN</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr"/>
+      <c r="C648" t="inlineStr"/>
+      <c r="D648" t="inlineStr">
         <is>
           <t>'121101'
 		,'121102'
@@ -20511,28 +20533,6 @@
 		,'170302'</t>
         </is>
       </c>
-      <c r="E647" t="inlineStr">
-        <is>
-          <t>PAR_DMT_TWT_FNC_SVC_AR_FCT_FA_TruncIns</t>
-        </is>
-      </c>
-    </row>
-    <row r="648">
-      <c r="A648" t="inlineStr">
-        <is>
-          <t>LOAN</t>
-        </is>
-      </c>
-      <c r="B648" t="inlineStr"/>
-      <c r="C648" t="inlineStr"/>
-      <c r="D648" t="inlineStr">
-        <is>
-          <t>(
-		'7D108472968DF6F6A56D5BDFC01488A9'
-		,'06CD0B184A47E6CEB56653555A20950F'
-		)</t>
-        </is>
-      </c>
       <c r="E648" t="inlineStr">
         <is>
           <t>PAR_DMT_TWT_FNC_SVC_AR_FCT_FA_TruncIns</t>
@@ -22673,7 +22673,7 @@
       <c r="C730" t="inlineStr"/>
       <c r="D730" t="inlineStr">
         <is>
-          <t>PST_DT</t>
+          <t>()</t>
         </is>
       </c>
       <c r="E730" t="inlineStr">
@@ -22692,7 +22692,7 @@
       <c r="C731" t="inlineStr"/>
       <c r="D731" t="inlineStr">
         <is>
-          <t>ACG_TP_ID = '6BD323629A5B4A768A50D4F091BB2952'</t>
+          <t>('C11M', 'C11S', 'M9P1', 'M9PM', 'M9PS', 'N9PS')</t>
         </is>
       </c>
       <c r="E731" t="inlineStr">
@@ -22711,7 +22711,7 @@
       <c r="C732" t="inlineStr"/>
       <c r="D732" t="inlineStr">
         <is>
-          <t>()</t>
+          <t>ACG_TP_ID = '6BD323629A5B4A768A50D4F091BB2952'</t>
         </is>
       </c>
       <c r="E732" t="inlineStr">
@@ -22730,7 +22730,7 @@
       <c r="C733" t="inlineStr"/>
       <c r="D733" t="inlineStr">
         <is>
-          <t>('C11M', 'C11S', 'M9P1', 'M9PM', 'M9PS', 'N9PS')</t>
+          <t>PST_DT</t>
         </is>
       </c>
       <c r="E733" t="inlineStr">
